--- a/media/marudhara_All_grublist.xlsx
+++ b/media/marudhara_All_grublist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>User ID</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>2015H101026</t>
+  </si>
+  <si>
+    <t>f2015040</t>
+  </si>
+  <si>
+    <t>ROHIT LODHA</t>
+  </si>
+  <si>
+    <t>2015A7PS040PP</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -408,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +537,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
